--- a/data/machine/materialList.xlsx
+++ b/data/machine/materialList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>dispatchCode</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>物料需求7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次订单号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesOrderBatchCode</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,9 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -675,9 +688,10 @@
     <col min="17" max="17" width="18.875" customWidth="1"/>
     <col min="18" max="18" width="13.75" customWidth="1"/>
     <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -735,8 +749,11 @@
       <c r="S1" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="T1" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -794,8 +811,11 @@
       <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="T2" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
